--- a/2-working-with-multiple-groups/iris-anova-solution.xlsx
+++ b/2-working-with-multiple-groups/iris-anova-solution.xlsx
@@ -1,24 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeM\Documents\GitHub\olt-intermediate-stats\2-working-with-multiple-groups\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\olt-intermediate-stats\2-working-with-multiple-groups\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120A3709-C485-4B60-9EB6-D21FCDAC2850}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B64C69B-2581-4BE3-AA80-6369248A2BAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3516" yWindow="600" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25693" yWindow="-93" windowWidth="25786" windowHeight="14586" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="iris" sheetId="4" r:id="rId1"/>
     <sheet name="iris-anova" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">iris!$B$2:$B$151</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">iris!$E$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">iris!$E$2:$E$151</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">iris!$B$2:$B$151</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">iris!$E$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">iris!$E$2:$E$151</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId3"/>
+    <pivotCache cacheId="61" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="36">
   <si>
     <t>setosa</t>
   </si>
@@ -730,9 +738,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="User" refreshedDate="43985.79782511574" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="150" xr:uid="{F7E8119D-957D-48EE-BAFC-C2FCA3835F4F}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="User" refreshedDate="44014.808376620371" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="150" xr:uid="{CDBF21A6-2DE6-4ECF-8A0E-93F029390D9D}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:D151" sheet="iris-anova"/>
+    <worksheetSource name="Table1"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="id" numFmtId="0">
@@ -2123,8 +2131,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7E7A1CC7-0530-4782-B265-FCAA2CC6D3AC}" name="PivotTable27" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="E1:H152" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{907FFE00-463E-49ED-9824-F21965089D4F}" name="PivotTable27" cacheId="61" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A1:D152" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
       <items count="151">
@@ -3092,20 +3100,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4C591A-A013-4F3E-9799-77187969177C}">
   <dimension ref="A1:F151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1" activeCellId="1" sqref="B1:B1048576 E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="11.8984375" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
     <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="12.796875" customWidth="1"/>
-    <col min="6" max="6" width="12.3984375" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" customWidth="1"/>
+    <col min="6" max="6" width="12.38671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -3125,7 +3133,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3145,7 +3153,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3165,7 +3173,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3185,7 +3193,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3205,7 +3213,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3225,7 +3233,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3245,7 +3253,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3265,7 +3273,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3285,7 +3293,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3305,7 +3313,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3325,7 +3333,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3345,7 +3353,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3365,7 +3373,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3385,7 +3393,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3405,7 +3413,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3425,7 +3433,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3445,7 +3453,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3465,7 +3473,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3485,7 +3493,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3505,7 +3513,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3525,7 +3533,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3545,7 +3553,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3565,7 +3573,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3585,7 +3593,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3605,7 +3613,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3625,7 +3633,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3645,7 +3653,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3665,7 +3673,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3685,7 +3693,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3705,7 +3713,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3725,7 +3733,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3745,7 +3753,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3765,7 +3773,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3785,7 +3793,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3805,7 +3813,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3825,7 +3833,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3845,7 +3853,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3865,7 +3873,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3885,7 +3893,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3905,7 +3913,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3925,7 +3933,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3945,7 +3953,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3965,7 +3973,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3985,7 +3993,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4005,7 +4013,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4025,7 +4033,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4045,7 +4053,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4065,7 +4073,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4085,7 +4093,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4105,7 +4113,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4125,7 +4133,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4145,7 +4153,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4165,7 +4173,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4185,7 +4193,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4205,7 +4213,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4225,7 +4233,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4245,7 +4253,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4265,7 +4273,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4285,7 +4293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4305,7 +4313,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4325,7 +4333,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4345,7 +4353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4365,7 +4373,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4385,7 +4393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4405,7 +4413,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4425,7 +4433,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4445,7 +4453,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4465,7 +4473,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4485,7 +4493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4505,7 +4513,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4525,7 +4533,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4545,7 +4553,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4565,7 +4573,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4585,7 +4593,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4605,7 +4613,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4625,7 +4633,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4645,7 +4653,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4665,7 +4673,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4685,7 +4693,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4705,7 +4713,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4725,7 +4733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4745,7 +4753,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4765,7 +4773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4785,7 +4793,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4805,7 +4813,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4825,7 +4833,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4845,7 +4853,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4865,7 +4873,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4885,7 +4893,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4905,7 +4913,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4925,7 +4933,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4945,7 +4953,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4965,7 +4973,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4985,7 +4993,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A95">
         <v>94</v>
       </c>
@@ -5005,7 +5013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A96">
         <v>95</v>
       </c>
@@ -5025,7 +5033,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A97">
         <v>96</v>
       </c>
@@ -5045,7 +5053,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A98">
         <v>97</v>
       </c>
@@ -5065,7 +5073,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A99">
         <v>98</v>
       </c>
@@ -5085,7 +5093,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A100">
         <v>99</v>
       </c>
@@ -5105,7 +5113,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A101">
         <v>100</v>
       </c>
@@ -5125,7 +5133,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A102">
         <v>101</v>
       </c>
@@ -5145,7 +5153,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A103">
         <v>102</v>
       </c>
@@ -5165,7 +5173,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A104">
         <v>103</v>
       </c>
@@ -5185,7 +5193,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A105">
         <v>104</v>
       </c>
@@ -5205,7 +5213,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A106">
         <v>105</v>
       </c>
@@ -5225,7 +5233,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A107">
         <v>106</v>
       </c>
@@ -5245,7 +5253,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A108">
         <v>107</v>
       </c>
@@ -5265,7 +5273,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A109">
         <v>108</v>
       </c>
@@ -5285,7 +5293,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A110">
         <v>109</v>
       </c>
@@ -5305,7 +5313,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A111">
         <v>110</v>
       </c>
@@ -5325,7 +5333,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A112">
         <v>111</v>
       </c>
@@ -5345,7 +5353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A113">
         <v>112</v>
       </c>
@@ -5365,7 +5373,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A114">
         <v>113</v>
       </c>
@@ -5385,7 +5393,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A115">
         <v>114</v>
       </c>
@@ -5405,7 +5413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A116">
         <v>115</v>
       </c>
@@ -5425,7 +5433,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A117">
         <v>116</v>
       </c>
@@ -5445,7 +5453,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A118">
         <v>117</v>
       </c>
@@ -5465,7 +5473,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A119">
         <v>118</v>
       </c>
@@ -5485,7 +5493,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A120">
         <v>119</v>
       </c>
@@ -5505,7 +5513,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A121">
         <v>120</v>
       </c>
@@ -5525,7 +5533,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A122">
         <v>121</v>
       </c>
@@ -5545,7 +5553,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A123">
         <v>122</v>
       </c>
@@ -5565,7 +5573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A124">
         <v>123</v>
       </c>
@@ -5585,7 +5593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A125">
         <v>124</v>
       </c>
@@ -5605,7 +5613,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A126">
         <v>125</v>
       </c>
@@ -5625,7 +5633,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A127">
         <v>126</v>
       </c>
@@ -5645,7 +5653,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A128">
         <v>127</v>
       </c>
@@ -5665,7 +5673,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A129">
         <v>128</v>
       </c>
@@ -5685,7 +5693,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A130">
         <v>129</v>
       </c>
@@ -5705,7 +5713,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A131">
         <v>130</v>
       </c>
@@ -5725,7 +5733,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A132">
         <v>131</v>
       </c>
@@ -5745,7 +5753,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A133">
         <v>132</v>
       </c>
@@ -5765,7 +5773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A134">
         <v>133</v>
       </c>
@@ -5785,7 +5793,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A135">
         <v>134</v>
       </c>
@@ -5805,7 +5813,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A136">
         <v>135</v>
       </c>
@@ -5825,7 +5833,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A137">
         <v>136</v>
       </c>
@@ -5845,7 +5853,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A138">
         <v>137</v>
       </c>
@@ -5865,7 +5873,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A139">
         <v>138</v>
       </c>
@@ -5885,7 +5893,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A140">
         <v>139</v>
       </c>
@@ -5905,7 +5913,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A141">
         <v>140</v>
       </c>
@@ -5925,7 +5933,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A142">
         <v>141</v>
       </c>
@@ -5945,7 +5953,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A143">
         <v>142</v>
       </c>
@@ -5965,7 +5973,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A144">
         <v>143</v>
       </c>
@@ -5985,7 +5993,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A145">
         <v>144</v>
       </c>
@@ -6005,7 +6013,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A146">
         <v>145</v>
       </c>
@@ -6025,7 +6033,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A147">
         <v>146</v>
       </c>
@@ -6045,7 +6053,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A148">
         <v>147</v>
       </c>
@@ -6065,7 +6073,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A149">
         <v>148</v>
       </c>
@@ -6085,7 +6093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A150">
         <v>149</v>
       </c>
@@ -6105,7 +6113,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A151">
         <v>150</v>
       </c>
@@ -6135,3543 +6143,1731 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P152"/>
+  <dimension ref="A1:L152"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.8984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.19921875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.19921875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.3984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.19921875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.796875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.38671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.0546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.38671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="F5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="F6" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="G6" s="4">
+        <v>49</v>
+      </c>
+      <c r="H6" s="4">
+        <v>71.7</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1.463265306122449</v>
+      </c>
+      <c r="J6" s="4">
+        <v>3.0705782312924573E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4">
+        <v>50</v>
+      </c>
+      <c r="H7" s="4">
+        <v>212.99999999999997</v>
+      </c>
+      <c r="I7" s="4">
+        <v>4.26</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.22081632653062022</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5">
+        <v>50</v>
+      </c>
+      <c r="H8" s="5">
+        <v>277.59999999999997</v>
+      </c>
+      <c r="I8" s="5">
+        <v>5.5519999999999996</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0.304587755102041</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="F12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13">
+        <v>431.50924191206661</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>215.75462095603331</v>
+      </c>
+      <c r="J13">
+        <v>1157.2999680287526</v>
+      </c>
+      <c r="K13">
+        <v>2.8298594114477927E-90</v>
+      </c>
+      <c r="L13">
+        <v>3.0580503830481405</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="F14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14">
+        <v>27.218677551020424</v>
+      </c>
+      <c r="H14">
+        <v>146</v>
+      </c>
+      <c r="I14">
+        <v>0.18642929829466043</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="F16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16">
+        <v>458.72791946308706</v>
+      </c>
+      <c r="H16">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="F19" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="G19" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="F21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21">
+        <f>_xlfn.T.TEST($B$3:$B$52,$C$53:$C$102,2,3)</f>
+        <v>9.9344329575875926E-46</v>
+      </c>
+      <c r="H21">
+        <f>$F$19/3</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="F22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22">
+        <f>_xlfn.T.TEST($C$53:$C$102,$D$103:$D$152,2,3)</f>
+        <v>4.9002875273982712E-22</v>
+      </c>
+      <c r="H22">
+        <f>$F$19/3</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="F23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23">
+        <f>_xlfn.T.TEST($D$103:$D$152,$B$3:$B$52,2,3)</f>
+        <v>9.2696275853457623E-50</v>
+      </c>
+      <c r="H23">
+        <f>$F$19/3</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="2">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" ht="47" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="2">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="F25" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="8" t="str">
+        <f ca="1">IFERROR(_xlfn.FORMULATEXT(G21),"")</f>
+        <v>=T.TEST($B$3:$B$52,$C$53:$C$102,2,3)</v>
+      </c>
+      <c r="H25" s="8" t="str">
+        <f ca="1">IFERROR(_xlfn.FORMULATEXT(H21),"")</f>
+        <v>=$F$19/3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="2">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="2">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="2">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="2">
+        <v>27</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="2">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="2">
+        <v>29</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="2">
+        <v>30</v>
+      </c>
+      <c r="B32" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="2">
+        <v>31</v>
+      </c>
+      <c r="B33" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="2">
+        <v>32</v>
+      </c>
+      <c r="B34" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="2">
+        <v>33</v>
+      </c>
+      <c r="B35" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="2">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="2">
+        <v>35</v>
+      </c>
+      <c r="B37" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="2">
+        <v>36</v>
+      </c>
+      <c r="B38" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="2">
+        <v>37</v>
+      </c>
+      <c r="B39" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="2">
+        <v>38</v>
+      </c>
+      <c r="B40" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="2">
+        <v>39</v>
+      </c>
+      <c r="B41" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="2">
+        <v>40</v>
+      </c>
+      <c r="B42" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="2">
+        <v>41</v>
+      </c>
+      <c r="B43" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="2">
+        <v>42</v>
+      </c>
+      <c r="B44" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="2">
+        <v>43</v>
+      </c>
+      <c r="B45" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="2">
+        <v>44</v>
+      </c>
+      <c r="B46" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="2">
+        <v>45</v>
+      </c>
+      <c r="B47" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="2">
+        <v>46</v>
+      </c>
+      <c r="B48" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="2">
+        <v>47</v>
+      </c>
+      <c r="B49" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="2">
+        <v>48</v>
+      </c>
+      <c r="B50" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="2">
+        <v>49</v>
+      </c>
+      <c r="B51" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="2">
+        <v>50</v>
+      </c>
+      <c r="B52" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="2">
+        <v>51</v>
+      </c>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="D53" s="3"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="2">
+        <v>52</v>
+      </c>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="D54" s="3"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="2">
+        <v>53</v>
+      </c>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D55" s="3"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="2">
+        <v>54</v>
+      </c>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3">
+        <v>4</v>
+      </c>
+      <c r="D56" s="3"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="2">
+        <v>55</v>
+      </c>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D57" s="3"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="2">
+        <v>56</v>
+      </c>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="D58" s="3"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="2">
+        <v>57</v>
+      </c>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="D59" s="3"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="2">
+        <v>58</v>
+      </c>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="D60" s="3"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="2">
+        <v>59</v>
+      </c>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D61" s="3"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="2">
+        <v>60</v>
+      </c>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="D62" s="3"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="2">
+        <v>61</v>
+      </c>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="D63" s="3"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="2">
+        <v>62</v>
+      </c>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="D64" s="3"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="2">
+        <v>63</v>
+      </c>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3">
+        <v>4</v>
+      </c>
+      <c r="D65" s="3"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="2">
+        <v>64</v>
+      </c>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="D66" s="3"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="2">
+        <v>65</v>
+      </c>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="D67" s="3"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="2">
+        <v>66</v>
+      </c>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D68" s="3"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="2">
+        <v>67</v>
+      </c>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="D69" s="3"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="2">
+        <v>68</v>
+      </c>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D70" s="3"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="2">
+        <v>69</v>
+      </c>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="D71" s="3"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="2">
+        <v>70</v>
+      </c>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="D72" s="3"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" s="2">
+        <v>71</v>
+      </c>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="D73" s="3"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" s="2">
+        <v>72</v>
+      </c>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3">
+        <v>4</v>
+      </c>
+      <c r="D74" s="3"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="2">
+        <v>73</v>
+      </c>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D75" s="3"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" s="2">
+        <v>74</v>
+      </c>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="D76" s="3"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" s="2">
+        <v>75</v>
+      </c>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="D77" s="3"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" s="2">
+        <v>76</v>
+      </c>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D78" s="3"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" s="2">
+        <v>77</v>
+      </c>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="D79" s="3"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" s="2">
+        <v>78</v>
+      </c>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3">
+        <v>5</v>
+      </c>
+      <c r="D80" s="3"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" s="2">
+        <v>79</v>
+      </c>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="D81" s="3"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" s="2">
+        <v>80</v>
+      </c>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="D82" s="3"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" s="2">
+        <v>81</v>
+      </c>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="D83" s="3"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" s="2">
+        <v>82</v>
+      </c>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="D84" s="3"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" s="2">
+        <v>83</v>
+      </c>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="D85" s="3"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" s="2">
+        <v>84</v>
+      </c>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D2">
-        <v>3.5</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3">
+      <c r="D86" s="3"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" s="2">
+        <v>85</v>
+      </c>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="D87" s="3"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" s="2">
+        <v>86</v>
+      </c>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="D88" s="3"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" s="2">
+        <v>87</v>
+      </c>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="D89" s="3"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" s="2">
+        <v>88</v>
+      </c>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D90" s="3"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" s="2">
+        <v>89</v>
+      </c>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D91" s="3"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" s="2">
+        <v>90</v>
+      </c>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3">
+        <v>4</v>
+      </c>
+      <c r="D92" s="3"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" s="2">
+        <v>91</v>
+      </c>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D93" s="3"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94" s="2">
+        <v>92</v>
+      </c>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D94" s="3"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95" s="2">
+        <v>93</v>
+      </c>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3">
+        <v>4</v>
+      </c>
+      <c r="D95" s="3"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96" s="2">
+        <v>94</v>
+      </c>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="D96" s="3"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" s="2">
+        <v>95</v>
+      </c>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="D97" s="3"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98" s="2">
+        <v>96</v>
+      </c>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="D98" s="3"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99" s="2">
+        <v>97</v>
+      </c>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="D99" s="3"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100" s="2">
+        <v>98</v>
+      </c>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="D100" s="3"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101" s="2">
+        <v>99</v>
+      </c>
+      <c r="B101" s="3"/>
+      <c r="C101" s="3">
+        <v>3</v>
+      </c>
+      <c r="D101" s="3"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102" s="2">
+        <v>100</v>
+      </c>
+      <c r="B102" s="3"/>
+      <c r="C102" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D102" s="3"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A103" s="2">
+        <v>101</v>
+      </c>
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A104" s="2">
+        <v>102</v>
+      </c>
+      <c r="B104" s="3"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A105" s="2">
+        <v>103</v>
+      </c>
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A106" s="2">
+        <v>104</v>
+      </c>
+      <c r="B106" s="3"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="3">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A107" s="2">
+        <v>105</v>
+      </c>
+      <c r="B107" s="3"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="3">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A108" s="2">
+        <v>106</v>
+      </c>
+      <c r="B108" s="3"/>
+      <c r="C108" s="3"/>
+      <c r="D108" s="3">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A109" s="2">
+        <v>107</v>
+      </c>
+      <c r="B109" s="3"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="3">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A110" s="2">
+        <v>108</v>
+      </c>
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A111" s="2">
+        <v>109</v>
+      </c>
+      <c r="B111" s="3"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="3">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A112" s="2">
+        <v>110</v>
+      </c>
+      <c r="B112" s="3"/>
+      <c r="C112" s="3"/>
+      <c r="D112" s="3">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A113" s="2">
+        <v>111</v>
+      </c>
+      <c r="B113" s="3"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A114" s="2">
+        <v>112</v>
+      </c>
+      <c r="B114" s="3"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="3">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A115" s="2">
+        <v>113</v>
+      </c>
+      <c r="B115" s="3"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="3">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A116" s="2">
+        <v>114</v>
+      </c>
+      <c r="B116" s="3"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A117" s="2">
+        <v>115</v>
+      </c>
+      <c r="B117" s="3"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A118" s="2">
+        <v>116</v>
+      </c>
+      <c r="B118" s="3"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="3">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A119" s="2">
+        <v>117</v>
+      </c>
+      <c r="B119" s="3"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="3">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A120" s="2">
+        <v>118</v>
+      </c>
+      <c r="B120" s="3"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="3">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A121" s="2">
+        <v>119</v>
+      </c>
+      <c r="B121" s="3"/>
+      <c r="C121" s="3"/>
+      <c r="D121" s="3">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A122" s="2">
+        <v>120</v>
+      </c>
+      <c r="B122" s="3"/>
+      <c r="C122" s="3"/>
+      <c r="D122" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A123" s="2">
+        <v>121</v>
+      </c>
+      <c r="B123" s="3"/>
+      <c r="C123" s="3"/>
+      <c r="D123" s="3">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A124" s="2">
+        <v>122</v>
+      </c>
+      <c r="B124" s="3"/>
+      <c r="C124" s="3"/>
+      <c r="D124" s="3">
         <v>4.9000000000000004</v>
       </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>4.7</v>
-      </c>
-      <c r="D4">
-        <v>3.2</v>
-      </c>
-      <c r="E4" s="2">
-        <v>2</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="J4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="D5">
-        <v>3.1</v>
-      </c>
-      <c r="E5" s="2">
-        <v>3</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="J5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6">
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A125" s="2">
+        <v>123</v>
+      </c>
+      <c r="B125" s="3"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="3">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A126" s="2">
+        <v>124</v>
+      </c>
+      <c r="B126" s="3"/>
+      <c r="C126" s="3"/>
+      <c r="D126" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A127" s="2">
+        <v>125</v>
+      </c>
+      <c r="B127" s="3"/>
+      <c r="C127" s="3"/>
+      <c r="D127" s="3">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A128" s="2">
+        <v>126</v>
+      </c>
+      <c r="B128" s="3"/>
+      <c r="C128" s="3"/>
+      <c r="D128" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A129" s="2">
+        <v>127</v>
+      </c>
+      <c r="B129" s="3"/>
+      <c r="C129" s="3"/>
+      <c r="D129" s="3">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A130" s="2">
+        <v>128</v>
+      </c>
+      <c r="B130" s="3"/>
+      <c r="C130" s="3"/>
+      <c r="D130" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A131" s="2">
+        <v>129</v>
+      </c>
+      <c r="B131" s="3"/>
+      <c r="C131" s="3"/>
+      <c r="D131" s="3">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A132" s="2">
+        <v>130</v>
+      </c>
+      <c r="B132" s="3"/>
+      <c r="C132" s="3"/>
+      <c r="D132" s="3">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A133" s="2">
+        <v>131</v>
+      </c>
+      <c r="B133" s="3"/>
+      <c r="C133" s="3"/>
+      <c r="D133" s="3">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A134" s="2">
+        <v>132</v>
+      </c>
+      <c r="B134" s="3"/>
+      <c r="C134" s="3"/>
+      <c r="D134" s="3">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A135" s="2">
+        <v>133</v>
+      </c>
+      <c r="B135" s="3"/>
+      <c r="C135" s="3"/>
+      <c r="D135" s="3">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A136" s="2">
+        <v>134</v>
+      </c>
+      <c r="B136" s="3"/>
+      <c r="C136" s="3"/>
+      <c r="D136" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A137" s="2">
+        <v>135</v>
+      </c>
+      <c r="B137" s="3"/>
+      <c r="C137" s="3"/>
+      <c r="D137" s="3">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A138" s="2">
+        <v>136</v>
+      </c>
+      <c r="B138" s="3"/>
+      <c r="C138" s="3"/>
+      <c r="D138" s="3">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A139" s="2">
+        <v>137</v>
+      </c>
+      <c r="B139" s="3"/>
+      <c r="C139" s="3"/>
+      <c r="D139" s="3">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A140" s="2">
+        <v>138</v>
+      </c>
+      <c r="B140" s="3"/>
+      <c r="C140" s="3"/>
+      <c r="D140" s="3">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A141" s="2">
+        <v>139</v>
+      </c>
+      <c r="B141" s="3"/>
+      <c r="C141" s="3"/>
+      <c r="D141" s="3">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A142" s="2">
+        <v>140</v>
+      </c>
+      <c r="B142" s="3"/>
+      <c r="C142" s="3"/>
+      <c r="D142" s="3">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A143" s="2">
+        <v>141</v>
+      </c>
+      <c r="B143" s="3"/>
+      <c r="C143" s="3"/>
+      <c r="D143" s="3">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A144" s="2">
+        <v>142</v>
+      </c>
+      <c r="B144" s="3"/>
+      <c r="C144" s="3"/>
+      <c r="D144" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A145" s="2">
+        <v>143</v>
+      </c>
+      <c r="B145" s="3"/>
+      <c r="C145" s="3"/>
+      <c r="D145" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A146" s="2">
+        <v>144</v>
+      </c>
+      <c r="B146" s="3"/>
+      <c r="C146" s="3"/>
+      <c r="D146" s="3">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A147" s="2">
+        <v>145</v>
+      </c>
+      <c r="B147" s="3"/>
+      <c r="C147" s="3"/>
+      <c r="D147" s="3">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A148" s="2">
+        <v>146</v>
+      </c>
+      <c r="B148" s="3"/>
+      <c r="C148" s="3"/>
+      <c r="D148" s="3">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A149" s="2">
+        <v>147</v>
+      </c>
+      <c r="B149" s="3"/>
+      <c r="C149" s="3"/>
+      <c r="D149" s="3">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>3.6</v>
-      </c>
-      <c r="E6" s="2">
-        <v>4</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="J6" s="4">
-        <v>1.4</v>
-      </c>
-      <c r="K6" s="4">
-        <v>49</v>
-      </c>
-      <c r="L6" s="4">
-        <v>71.7</v>
-      </c>
-      <c r="M6" s="4">
-        <v>1.463265306122449</v>
-      </c>
-      <c r="N6" s="4">
-        <v>3.0705782312924573E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7">
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A150" s="2">
+        <v>148</v>
+      </c>
+      <c r="B150" s="3"/>
+      <c r="C150" s="3"/>
+      <c r="D150" s="3">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A151" s="2">
+        <v>149</v>
+      </c>
+      <c r="B151" s="3"/>
+      <c r="C151" s="3"/>
+      <c r="D151" s="3">
         <v>5.4</v>
       </c>
-      <c r="D7">
-        <v>3.9</v>
-      </c>
-      <c r="E7" s="2">
-        <v>5</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4">
-        <v>50</v>
-      </c>
-      <c r="L7" s="4">
-        <v>212.99999999999997</v>
-      </c>
-      <c r="M7" s="4">
-        <v>4.26</v>
-      </c>
-      <c r="N7" s="4">
-        <v>0.22081632653062022</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="D8">
-        <v>3.4</v>
-      </c>
-      <c r="E8" s="2">
-        <v>6</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5">
-        <v>50</v>
-      </c>
-      <c r="L8" s="5">
-        <v>277.59999999999997</v>
-      </c>
-      <c r="M8" s="5">
-        <v>5.5519999999999996</v>
-      </c>
-      <c r="N8" s="5">
-        <v>0.304587755102041</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>5</v>
-      </c>
-      <c r="D9">
-        <v>3.4</v>
-      </c>
-      <c r="E9" s="2">
-        <v>7</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D10">
-        <v>2.9</v>
-      </c>
-      <c r="E10" s="2">
-        <v>8</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="D11">
-        <v>3.1</v>
-      </c>
-      <c r="E11" s="2">
-        <v>9</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="J11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>5.4</v>
-      </c>
-      <c r="D12">
-        <v>3.7</v>
-      </c>
-      <c r="E12" s="2">
-        <v>10</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="J12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L12" t="s">
-        <v>21</v>
-      </c>
-      <c r="M12" t="s">
-        <v>22</v>
-      </c>
-      <c r="N12" t="s">
-        <v>23</v>
-      </c>
-      <c r="O12" t="s">
-        <v>24</v>
-      </c>
-      <c r="P12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>4.8</v>
-      </c>
-      <c r="D13">
-        <v>3.4</v>
-      </c>
-      <c r="E13" s="2">
-        <v>11</v>
-      </c>
-      <c r="F13" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="J13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K13">
-        <v>431.50924191206661</v>
-      </c>
-      <c r="L13">
-        <v>2</v>
-      </c>
-      <c r="M13">
-        <v>215.75462095603331</v>
-      </c>
-      <c r="N13">
-        <v>1157.2999680287526</v>
-      </c>
-      <c r="O13">
-        <v>2.8298594114477927E-90</v>
-      </c>
-      <c r="P13">
-        <v>3.0580503830481405</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>4.8</v>
-      </c>
-      <c r="D14">
-        <v>3</v>
-      </c>
-      <c r="E14" s="2">
-        <v>12</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="J14" t="s">
-        <v>27</v>
-      </c>
-      <c r="K14">
-        <v>27.218677551020424</v>
-      </c>
-      <c r="L14">
-        <v>146</v>
-      </c>
-      <c r="M14">
-        <v>0.18642929829466043</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>4.3</v>
-      </c>
-      <c r="D15">
-        <v>3</v>
-      </c>
-      <c r="E15" s="2">
-        <v>13</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>5.8</v>
-      </c>
-      <c r="D16">
-        <v>4</v>
-      </c>
-      <c r="E16" s="2">
-        <v>14</v>
-      </c>
-      <c r="F16" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="J16" t="s">
-        <v>28</v>
-      </c>
-      <c r="K16">
-        <v>458.72791946308706</v>
-      </c>
-      <c r="L16">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>5.7</v>
-      </c>
-      <c r="D17">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E17" s="2">
-        <v>15</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>5.4</v>
-      </c>
-      <c r="D18">
-        <v>3.9</v>
-      </c>
-      <c r="E18" s="2">
-        <v>16</v>
-      </c>
-      <c r="F18" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="D19">
-        <v>3.5</v>
-      </c>
-      <c r="E19" s="2">
-        <v>17</v>
-      </c>
-      <c r="F19" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="J19" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="K19" t="s">
-        <v>29</v>
-      </c>
-      <c r="L19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>5.7</v>
-      </c>
-      <c r="D20">
-        <v>3.8</v>
-      </c>
-      <c r="E20" s="2">
-        <v>18</v>
-      </c>
-      <c r="F20" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="D21">
-        <v>3.8</v>
-      </c>
-      <c r="E21" s="2">
-        <v>19</v>
-      </c>
-      <c r="F21" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="J21" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21">
-        <f>_xlfn.T.TEST($F$3:$F$52,$G$53:$G$102,2,3)</f>
-        <v>9.9344329575875926E-46</v>
-      </c>
-      <c r="L21">
-        <f>$J$19/3</f>
-        <v>1.6666666666666666E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>5.4</v>
-      </c>
-      <c r="D22">
-        <v>3.4</v>
-      </c>
-      <c r="E22" s="2">
-        <v>20</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="J22" t="s">
-        <v>31</v>
-      </c>
-      <c r="K22">
-        <f>_xlfn.T.TEST($G$53:$G$102,$H$103:$H$152,2,3)</f>
-        <v>4.9002875273982712E-22</v>
-      </c>
-      <c r="L22">
-        <f>$J$19/3</f>
-        <v>1.6666666666666666E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="D23">
-        <v>3.7</v>
-      </c>
-      <c r="E23" s="2">
-        <v>21</v>
-      </c>
-      <c r="F23" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="J23" t="s">
-        <v>32</v>
-      </c>
-      <c r="K23">
-        <f>_xlfn.T.TEST($H$103:$H$152,$F$3:$F$52,2,3)</f>
-        <v>9.2696275853457623E-50</v>
-      </c>
-      <c r="L23">
-        <f>$J$19/3</f>
-        <v>1.6666666666666666E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="D24">
-        <v>3.6</v>
-      </c>
-      <c r="E24" s="2">
-        <v>22</v>
-      </c>
-      <c r="F24" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="D25">
-        <v>3.3</v>
-      </c>
-      <c r="E25" s="2">
-        <v>23</v>
-      </c>
-      <c r="F25" s="3">
-        <v>1</v>
-      </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="J25" t="s">
-        <v>34</v>
-      </c>
-      <c r="K25" s="8" t="str">
-        <f ca="1">IFERROR(_xlfn.FORMULATEXT(K21),"")</f>
-        <v>=T.TEST($F$3:$F$52,$G$53:$G$102,2,3)</v>
-      </c>
-      <c r="L25" s="8" t="str">
-        <f ca="1">IFERROR(_xlfn.FORMULATEXT(L21),"")</f>
-        <v>=$J$19/3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>4.8</v>
-      </c>
-      <c r="D26">
-        <v>3.4</v>
-      </c>
-      <c r="E26" s="2">
-        <v>24</v>
-      </c>
-      <c r="F26" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>5</v>
-      </c>
-      <c r="D27">
-        <v>3</v>
-      </c>
-      <c r="E27" s="2">
-        <v>25</v>
-      </c>
-      <c r="F27" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>5</v>
-      </c>
-      <c r="D28">
-        <v>3.4</v>
-      </c>
-      <c r="E28" s="2">
-        <v>26</v>
-      </c>
-      <c r="F28" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <v>5.2</v>
-      </c>
-      <c r="D29">
-        <v>3.5</v>
-      </c>
-      <c r="E29" s="2">
-        <v>27</v>
-      </c>
-      <c r="F29" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>5.2</v>
-      </c>
-      <c r="D30">
-        <v>3.4</v>
-      </c>
-      <c r="E30" s="2">
-        <v>28</v>
-      </c>
-      <c r="F30" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <v>4.7</v>
-      </c>
-      <c r="D31">
-        <v>3.2</v>
-      </c>
-      <c r="E31" s="2">
-        <v>29</v>
-      </c>
-      <c r="F31" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>4.8</v>
-      </c>
-      <c r="D32">
-        <v>3.1</v>
-      </c>
-      <c r="E32" s="2">
-        <v>30</v>
-      </c>
-      <c r="F32" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33">
-        <v>5.4</v>
-      </c>
-      <c r="D33">
-        <v>3.4</v>
-      </c>
-      <c r="E33" s="2">
-        <v>31</v>
-      </c>
-      <c r="F33" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34">
-        <v>5.2</v>
-      </c>
-      <c r="D34">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="E34" s="2">
-        <v>32</v>
-      </c>
-      <c r="F34" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <v>5.5</v>
-      </c>
-      <c r="D35">
-        <v>4.2</v>
-      </c>
-      <c r="E35" s="2">
-        <v>33</v>
-      </c>
-      <c r="F35" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="D36">
-        <v>3.1</v>
-      </c>
-      <c r="E36" s="2">
-        <v>34</v>
-      </c>
-      <c r="F36" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>0</v>
-      </c>
-      <c r="C37">
-        <v>5</v>
-      </c>
-      <c r="D37">
-        <v>3.2</v>
-      </c>
-      <c r="E37" s="2">
-        <v>35</v>
-      </c>
-      <c r="F37" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>0</v>
-      </c>
-      <c r="C38">
-        <v>5.5</v>
-      </c>
-      <c r="D38">
-        <v>3.5</v>
-      </c>
-      <c r="E38" s="2">
-        <v>36</v>
-      </c>
-      <c r="F38" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="D39">
-        <v>3.6</v>
-      </c>
-      <c r="E39" s="2">
-        <v>37</v>
-      </c>
-      <c r="F39" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C40">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D40">
-        <v>3</v>
-      </c>
-      <c r="E40" s="2">
-        <v>38</v>
-      </c>
-      <c r="F40" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C41">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="D41">
-        <v>3.4</v>
-      </c>
-      <c r="E41" s="2">
-        <v>39</v>
-      </c>
-      <c r="F41" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>0</v>
-      </c>
-      <c r="C42">
-        <v>5</v>
-      </c>
-      <c r="D42">
-        <v>3.5</v>
-      </c>
-      <c r="E42" s="2">
-        <v>40</v>
-      </c>
-      <c r="F42" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>0</v>
-      </c>
-      <c r="C43">
-        <v>4.5</v>
-      </c>
-      <c r="D43">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E43" s="2">
-        <v>41</v>
-      </c>
-      <c r="F43" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>0</v>
-      </c>
-      <c r="C44">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D44">
-        <v>3.2</v>
-      </c>
-      <c r="E44" s="2">
-        <v>42</v>
-      </c>
-      <c r="F44" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>0</v>
-      </c>
-      <c r="C45">
-        <v>5</v>
-      </c>
-      <c r="D45">
-        <v>3.5</v>
-      </c>
-      <c r="E45" s="2">
-        <v>43</v>
-      </c>
-      <c r="F45" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C46">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="D46">
-        <v>3.8</v>
-      </c>
-      <c r="E46" s="2">
-        <v>44</v>
-      </c>
-      <c r="F46" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>0</v>
-      </c>
-      <c r="C47">
-        <v>4.8</v>
-      </c>
-      <c r="D47">
-        <v>3</v>
-      </c>
-      <c r="E47" s="2">
-        <v>45</v>
-      </c>
-      <c r="F47" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>0</v>
-      </c>
-      <c r="C48">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="D48">
-        <v>3.8</v>
-      </c>
-      <c r="E48" s="2">
-        <v>46</v>
-      </c>
-      <c r="F48" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C49">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="D49">
-        <v>3.2</v>
-      </c>
-      <c r="E49" s="2">
-        <v>47</v>
-      </c>
-      <c r="F49" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50" t="s">
-        <v>0</v>
-      </c>
-      <c r="C50">
-        <v>5.3</v>
-      </c>
-      <c r="D50">
-        <v>3.7</v>
-      </c>
-      <c r="E50" s="2">
-        <v>48</v>
-      </c>
-      <c r="F50" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51" t="s">
-        <v>0</v>
-      </c>
-      <c r="C51">
-        <v>5</v>
-      </c>
-      <c r="D51">
-        <v>3.3</v>
-      </c>
-      <c r="E51" s="2">
-        <v>49</v>
-      </c>
-      <c r="F51" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52" t="s">
-        <v>1</v>
-      </c>
-      <c r="C52">
-        <v>7</v>
-      </c>
-      <c r="D52">
-        <v>3.2</v>
-      </c>
-      <c r="E52" s="2">
-        <v>50</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53" t="s">
-        <v>1</v>
-      </c>
-      <c r="C53">
-        <v>6.4</v>
-      </c>
-      <c r="D53">
-        <v>3.2</v>
-      </c>
-      <c r="E53" s="2">
-        <v>51</v>
-      </c>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3">
-        <v>4.7</v>
-      </c>
-      <c r="H53" s="3"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54" t="s">
-        <v>1</v>
-      </c>
-      <c r="C54">
-        <v>6.9</v>
-      </c>
-      <c r="D54">
-        <v>3.1</v>
-      </c>
-      <c r="E54" s="2">
-        <v>52</v>
-      </c>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="H54" s="3"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55" t="s">
-        <v>1</v>
-      </c>
-      <c r="C55">
-        <v>5.5</v>
-      </c>
-      <c r="D55">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E55" s="2">
-        <v>53</v>
-      </c>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="H55" s="3"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56" t="s">
-        <v>1</v>
-      </c>
-      <c r="C56">
-        <v>6.5</v>
-      </c>
-      <c r="D56">
-        <v>2.8</v>
-      </c>
-      <c r="E56" s="2">
-        <v>54</v>
-      </c>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3">
-        <v>4</v>
-      </c>
-      <c r="H56" s="3"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57" t="s">
-        <v>1</v>
-      </c>
-      <c r="C57">
-        <v>5.7</v>
-      </c>
-      <c r="D57">
-        <v>2.8</v>
-      </c>
-      <c r="E57" s="2">
-        <v>55</v>
-      </c>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="H57" s="3"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58" t="s">
-        <v>1</v>
-      </c>
-      <c r="C58">
-        <v>6.3</v>
-      </c>
-      <c r="D58">
-        <v>3.3</v>
-      </c>
-      <c r="E58" s="2">
-        <v>56</v>
-      </c>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="H58" s="3"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59" t="s">
-        <v>1</v>
-      </c>
-      <c r="C59">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="D59">
-        <v>2.4</v>
-      </c>
-      <c r="E59" s="2">
-        <v>57</v>
-      </c>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3">
-        <v>4.7</v>
-      </c>
-      <c r="H59" s="3"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60" t="s">
-        <v>1</v>
-      </c>
-      <c r="C60">
-        <v>6.6</v>
-      </c>
-      <c r="D60">
-        <v>2.9</v>
-      </c>
-      <c r="E60" s="2">
-        <v>58</v>
-      </c>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="H60" s="3"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61" t="s">
-        <v>1</v>
-      </c>
-      <c r="C61">
-        <v>5.2</v>
-      </c>
-      <c r="D61">
-        <v>2.7</v>
-      </c>
-      <c r="E61" s="2">
-        <v>59</v>
-      </c>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="H61" s="3"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="B62" t="s">
-        <v>1</v>
-      </c>
-      <c r="C62">
-        <v>5</v>
-      </c>
-      <c r="D62">
-        <v>2</v>
-      </c>
-      <c r="E62" s="2">
-        <v>60</v>
-      </c>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="H62" s="3"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="B63" t="s">
-        <v>1</v>
-      </c>
-      <c r="C63">
-        <v>5.9</v>
-      </c>
-      <c r="D63">
-        <v>3</v>
-      </c>
-      <c r="E63" s="2">
-        <v>61</v>
-      </c>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="H63" s="3"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="B64" t="s">
-        <v>1</v>
-      </c>
-      <c r="C64">
-        <v>6</v>
-      </c>
-      <c r="D64">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E64" s="2">
-        <v>62</v>
-      </c>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3">
-        <v>4.2</v>
-      </c>
-      <c r="H64" s="3"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <v>64</v>
-      </c>
-      <c r="B65" t="s">
-        <v>1</v>
-      </c>
-      <c r="C65">
-        <v>6.1</v>
-      </c>
-      <c r="D65">
-        <v>2.9</v>
-      </c>
-      <c r="E65" s="2">
-        <v>63</v>
-      </c>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3">
-        <v>4</v>
-      </c>
-      <c r="H65" s="3"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66">
-        <v>65</v>
-      </c>
-      <c r="B66" t="s">
-        <v>1</v>
-      </c>
-      <c r="C66">
-        <v>5.6</v>
-      </c>
-      <c r="D66">
-        <v>2.9</v>
-      </c>
-      <c r="E66" s="2">
-        <v>64</v>
-      </c>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3">
-        <v>4.7</v>
-      </c>
-      <c r="H66" s="3"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <v>66</v>
-      </c>
-      <c r="B67" t="s">
-        <v>1</v>
-      </c>
-      <c r="C67">
-        <v>6.7</v>
-      </c>
-      <c r="D67">
-        <v>3.1</v>
-      </c>
-      <c r="E67" s="2">
-        <v>65</v>
-      </c>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3">
-        <v>3.6</v>
-      </c>
-      <c r="H67" s="3"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68">
-        <v>67</v>
-      </c>
-      <c r="B68" t="s">
-        <v>1</v>
-      </c>
-      <c r="C68">
-        <v>5.6</v>
-      </c>
-      <c r="D68">
-        <v>3</v>
-      </c>
-      <c r="E68" s="2">
-        <v>66</v>
-      </c>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="H68" s="3"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69">
-        <v>68</v>
-      </c>
-      <c r="B69" t="s">
-        <v>1</v>
-      </c>
-      <c r="C69">
-        <v>5.8</v>
-      </c>
-      <c r="D69">
-        <v>2.7</v>
-      </c>
-      <c r="E69" s="2">
-        <v>67</v>
-      </c>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="H69" s="3"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <v>69</v>
-      </c>
-      <c r="B70" t="s">
-        <v>1</v>
-      </c>
-      <c r="C70">
-        <v>6.2</v>
-      </c>
-      <c r="D70">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E70" s="2">
-        <v>68</v>
-      </c>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="H70" s="3"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <v>70</v>
-      </c>
-      <c r="B71" t="s">
-        <v>1</v>
-      </c>
-      <c r="C71">
-        <v>5.6</v>
-      </c>
-      <c r="D71">
-        <v>2.5</v>
-      </c>
-      <c r="E71" s="2">
-        <v>69</v>
-      </c>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="H71" s="3"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <v>71</v>
-      </c>
-      <c r="B72" t="s">
-        <v>1</v>
-      </c>
-      <c r="C72">
-        <v>5.9</v>
-      </c>
-      <c r="D72">
-        <v>3.2</v>
-      </c>
-      <c r="E72" s="2">
-        <v>70</v>
-      </c>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="H72" s="3"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <v>72</v>
-      </c>
-      <c r="B73" t="s">
-        <v>1</v>
-      </c>
-      <c r="C73">
-        <v>6.1</v>
-      </c>
-      <c r="D73">
-        <v>2.8</v>
-      </c>
-      <c r="E73" s="2">
-        <v>71</v>
-      </c>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3">
-        <v>4.8</v>
-      </c>
-      <c r="H73" s="3"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74">
-        <v>73</v>
-      </c>
-      <c r="B74" t="s">
-        <v>1</v>
-      </c>
-      <c r="C74">
-        <v>6.3</v>
-      </c>
-      <c r="D74">
-        <v>2.5</v>
-      </c>
-      <c r="E74" s="2">
-        <v>72</v>
-      </c>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3">
-        <v>4</v>
-      </c>
-      <c r="H74" s="3"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <v>74</v>
-      </c>
-      <c r="B75" t="s">
-        <v>1</v>
-      </c>
-      <c r="C75">
-        <v>6.1</v>
-      </c>
-      <c r="D75">
-        <v>2.8</v>
-      </c>
-      <c r="E75" s="2">
-        <v>73</v>
-      </c>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="H75" s="3"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76">
-        <v>75</v>
-      </c>
-      <c r="B76" t="s">
-        <v>1</v>
-      </c>
-      <c r="C76">
-        <v>6.4</v>
-      </c>
-      <c r="D76">
-        <v>2.9</v>
-      </c>
-      <c r="E76" s="2">
-        <v>74</v>
-      </c>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3">
-        <v>4.7</v>
-      </c>
-      <c r="H76" s="3"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77">
-        <v>76</v>
-      </c>
-      <c r="B77" t="s">
-        <v>1</v>
-      </c>
-      <c r="C77">
-        <v>6.6</v>
-      </c>
-      <c r="D77">
-        <v>3</v>
-      </c>
-      <c r="E77" s="2">
-        <v>75</v>
-      </c>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3">
-        <v>4.3</v>
-      </c>
-      <c r="H77" s="3"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78">
-        <v>77</v>
-      </c>
-      <c r="B78" t="s">
-        <v>1</v>
-      </c>
-      <c r="C78">
-        <v>6.8</v>
-      </c>
-      <c r="D78">
-        <v>2.8</v>
-      </c>
-      <c r="E78" s="2">
-        <v>76</v>
-      </c>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="H78" s="3"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79">
-        <v>78</v>
-      </c>
-      <c r="B79" t="s">
-        <v>1</v>
-      </c>
-      <c r="C79">
-        <v>6.7</v>
-      </c>
-      <c r="D79">
-        <v>3</v>
-      </c>
-      <c r="E79" s="2">
-        <v>77</v>
-      </c>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3">
-        <v>4.8</v>
-      </c>
-      <c r="H79" s="3"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80">
-        <v>79</v>
-      </c>
-      <c r="B80" t="s">
-        <v>1</v>
-      </c>
-      <c r="C80">
-        <v>6</v>
-      </c>
-      <c r="D80">
-        <v>2.9</v>
-      </c>
-      <c r="E80" s="2">
-        <v>78</v>
-      </c>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3">
-        <v>5</v>
-      </c>
-      <c r="H80" s="3"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81">
-        <v>80</v>
-      </c>
-      <c r="B81" t="s">
-        <v>1</v>
-      </c>
-      <c r="C81">
-        <v>5.7</v>
-      </c>
-      <c r="D81">
-        <v>2.6</v>
-      </c>
-      <c r="E81" s="2">
-        <v>79</v>
-      </c>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="H81" s="3"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82">
-        <v>81</v>
-      </c>
-      <c r="B82" t="s">
-        <v>1</v>
-      </c>
-      <c r="C82">
-        <v>5.5</v>
-      </c>
-      <c r="D82">
-        <v>2.4</v>
-      </c>
-      <c r="E82" s="2">
-        <v>80</v>
-      </c>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="H82" s="3"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83">
-        <v>82</v>
-      </c>
-      <c r="B83" t="s">
-        <v>1</v>
-      </c>
-      <c r="C83">
-        <v>5.5</v>
-      </c>
-      <c r="D83">
-        <v>2.4</v>
-      </c>
-      <c r="E83" s="2">
-        <v>81</v>
-      </c>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3">
-        <v>3.8</v>
-      </c>
-      <c r="H83" s="3"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84">
-        <v>83</v>
-      </c>
-      <c r="B84" t="s">
-        <v>1</v>
-      </c>
-      <c r="C84">
-        <v>5.8</v>
-      </c>
-      <c r="D84">
-        <v>2.7</v>
-      </c>
-      <c r="E84" s="2">
-        <v>82</v>
-      </c>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3">
-        <v>3.7</v>
-      </c>
-      <c r="H84" s="3"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85">
-        <v>84</v>
-      </c>
-      <c r="B85" t="s">
-        <v>1</v>
-      </c>
-      <c r="C85">
-        <v>6</v>
-      </c>
-      <c r="D85">
-        <v>2.7</v>
-      </c>
-      <c r="E85" s="2">
-        <v>83</v>
-      </c>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="H85" s="3"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86">
-        <v>85</v>
-      </c>
-      <c r="B86" t="s">
-        <v>1</v>
-      </c>
-      <c r="C86">
-        <v>5.4</v>
-      </c>
-      <c r="D86">
-        <v>3</v>
-      </c>
-      <c r="E86" s="2">
-        <v>84</v>
-      </c>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="H86" s="3"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87">
-        <v>86</v>
-      </c>
-      <c r="B87" t="s">
-        <v>1</v>
-      </c>
-      <c r="C87">
-        <v>6</v>
-      </c>
-      <c r="D87">
-        <v>3.4</v>
-      </c>
-      <c r="E87" s="2">
-        <v>85</v>
-      </c>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="H87" s="3"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88">
-        <v>87</v>
-      </c>
-      <c r="B88" t="s">
-        <v>1</v>
-      </c>
-      <c r="C88">
-        <v>6.7</v>
-      </c>
-      <c r="D88">
-        <v>3.1</v>
-      </c>
-      <c r="E88" s="2">
-        <v>86</v>
-      </c>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="H88" s="3"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89">
-        <v>88</v>
-      </c>
-      <c r="B89" t="s">
-        <v>1</v>
-      </c>
-      <c r="C89">
-        <v>6.3</v>
-      </c>
-      <c r="D89">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E89" s="2">
-        <v>87</v>
-      </c>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3">
-        <v>4.7</v>
-      </c>
-      <c r="H89" s="3"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90">
-        <v>89</v>
-      </c>
-      <c r="B90" t="s">
-        <v>1</v>
-      </c>
-      <c r="C90">
-        <v>5.6</v>
-      </c>
-      <c r="D90">
-        <v>3</v>
-      </c>
-      <c r="E90" s="2">
-        <v>88</v>
-      </c>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="H90" s="3"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91">
-        <v>90</v>
-      </c>
-      <c r="B91" t="s">
-        <v>1</v>
-      </c>
-      <c r="C91">
-        <v>5.5</v>
-      </c>
-      <c r="D91">
-        <v>2.5</v>
-      </c>
-      <c r="E91" s="2">
-        <v>89</v>
-      </c>
-      <c r="F91" s="3"/>
-      <c r="G91" s="3">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="H91" s="3"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92">
-        <v>91</v>
-      </c>
-      <c r="B92" t="s">
-        <v>1</v>
-      </c>
-      <c r="C92">
-        <v>5.5</v>
-      </c>
-      <c r="D92">
-        <v>2.6</v>
-      </c>
-      <c r="E92" s="2">
-        <v>90</v>
-      </c>
-      <c r="F92" s="3"/>
-      <c r="G92" s="3">
-        <v>4</v>
-      </c>
-      <c r="H92" s="3"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93">
-        <v>92</v>
-      </c>
-      <c r="B93" t="s">
-        <v>1</v>
-      </c>
-      <c r="C93">
-        <v>6.1</v>
-      </c>
-      <c r="D93">
-        <v>3</v>
-      </c>
-      <c r="E93" s="2">
-        <v>91</v>
-      </c>
-      <c r="F93" s="3"/>
-      <c r="G93" s="3">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="H93" s="3"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94">
-        <v>93</v>
-      </c>
-      <c r="B94" t="s">
-        <v>1</v>
-      </c>
-      <c r="C94">
-        <v>5.8</v>
-      </c>
-      <c r="D94">
-        <v>2.6</v>
-      </c>
-      <c r="E94" s="2">
-        <v>92</v>
-      </c>
-      <c r="F94" s="3"/>
-      <c r="G94" s="3">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="H94" s="3"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95">
-        <v>94</v>
-      </c>
-      <c r="B95" t="s">
-        <v>1</v>
-      </c>
-      <c r="C95">
-        <v>5</v>
-      </c>
-      <c r="D95">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E95" s="2">
-        <v>93</v>
-      </c>
-      <c r="F95" s="3"/>
-      <c r="G95" s="3">
-        <v>4</v>
-      </c>
-      <c r="H95" s="3"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96">
-        <v>95</v>
-      </c>
-      <c r="B96" t="s">
-        <v>1</v>
-      </c>
-      <c r="C96">
-        <v>5.6</v>
-      </c>
-      <c r="D96">
-        <v>2.7</v>
-      </c>
-      <c r="E96" s="2">
-        <v>94</v>
-      </c>
-      <c r="F96" s="3"/>
-      <c r="G96" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="H96" s="3"/>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97">
-        <v>96</v>
-      </c>
-      <c r="B97" t="s">
-        <v>1</v>
-      </c>
-      <c r="C97">
-        <v>5.7</v>
-      </c>
-      <c r="D97">
-        <v>3</v>
-      </c>
-      <c r="E97" s="2">
-        <v>95</v>
-      </c>
-      <c r="F97" s="3"/>
-      <c r="G97" s="3">
-        <v>4.2</v>
-      </c>
-      <c r="H97" s="3"/>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98">
-        <v>97</v>
-      </c>
-      <c r="B98" t="s">
-        <v>1</v>
-      </c>
-      <c r="C98">
-        <v>5.7</v>
-      </c>
-      <c r="D98">
-        <v>2.9</v>
-      </c>
-      <c r="E98" s="2">
-        <v>96</v>
-      </c>
-      <c r="F98" s="3"/>
-      <c r="G98" s="3">
-        <v>4.2</v>
-      </c>
-      <c r="H98" s="3"/>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99">
-        <v>98</v>
-      </c>
-      <c r="B99" t="s">
-        <v>1</v>
-      </c>
-      <c r="C99">
-        <v>6.2</v>
-      </c>
-      <c r="D99">
-        <v>2.9</v>
-      </c>
-      <c r="E99" s="2">
-        <v>97</v>
-      </c>
-      <c r="F99" s="3"/>
-      <c r="G99" s="3">
-        <v>4.2</v>
-      </c>
-      <c r="H99" s="3"/>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100">
-        <v>99</v>
-      </c>
-      <c r="B100" t="s">
-        <v>1</v>
-      </c>
-      <c r="C100">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="D100">
-        <v>2.5</v>
-      </c>
-      <c r="E100" s="2">
-        <v>98</v>
-      </c>
-      <c r="F100" s="3"/>
-      <c r="G100" s="3">
-        <v>4.3</v>
-      </c>
-      <c r="H100" s="3"/>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101">
-        <v>100</v>
-      </c>
-      <c r="B101" t="s">
-        <v>1</v>
-      </c>
-      <c r="C101">
-        <v>5.7</v>
-      </c>
-      <c r="D101">
-        <v>2.8</v>
-      </c>
-      <c r="E101" s="2">
-        <v>99</v>
-      </c>
-      <c r="F101" s="3"/>
-      <c r="G101" s="3">
-        <v>3</v>
-      </c>
-      <c r="H101" s="3"/>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A102">
-        <v>101</v>
-      </c>
-      <c r="B102" t="s">
-        <v>2</v>
-      </c>
-      <c r="C102">
-        <v>6.3</v>
-      </c>
-      <c r="D102">
-        <v>3.3</v>
-      </c>
-      <c r="E102" s="2">
-        <v>100</v>
-      </c>
-      <c r="F102" s="3"/>
-      <c r="G102" s="3">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="H102" s="3"/>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A103">
-        <v>102</v>
-      </c>
-      <c r="B103" t="s">
-        <v>2</v>
-      </c>
-      <c r="C103">
-        <v>5.8</v>
-      </c>
-      <c r="D103">
-        <v>2.7</v>
-      </c>
-      <c r="E103" s="2">
-        <v>101</v>
-      </c>
-      <c r="F103" s="3"/>
-      <c r="G103" s="3"/>
-      <c r="H103" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A104">
-        <v>103</v>
-      </c>
-      <c r="B104" t="s">
-        <v>2</v>
-      </c>
-      <c r="C104">
-        <v>7.1</v>
-      </c>
-      <c r="D104">
-        <v>3</v>
-      </c>
-      <c r="E104" s="2">
-        <v>102</v>
-      </c>
-      <c r="F104" s="3"/>
-      <c r="G104" s="3"/>
-      <c r="H104" s="3">
-        <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A105">
-        <v>104</v>
-      </c>
-      <c r="B105" t="s">
-        <v>2</v>
-      </c>
-      <c r="C105">
-        <v>6.3</v>
-      </c>
-      <c r="D105">
-        <v>2.9</v>
-      </c>
-      <c r="E105" s="2">
-        <v>103</v>
-      </c>
-      <c r="F105" s="3"/>
-      <c r="G105" s="3"/>
-      <c r="H105" s="3">
-        <v>5.9</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A106">
-        <v>105</v>
-      </c>
-      <c r="B106" t="s">
-        <v>2</v>
-      </c>
-      <c r="C106">
-        <v>6.5</v>
-      </c>
-      <c r="D106">
-        <v>3</v>
-      </c>
-      <c r="E106" s="2">
-        <v>104</v>
-      </c>
-      <c r="F106" s="3"/>
-      <c r="G106" s="3"/>
-      <c r="H106" s="3">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A107">
-        <v>106</v>
-      </c>
-      <c r="B107" t="s">
-        <v>2</v>
-      </c>
-      <c r="C107">
-        <v>7.6</v>
-      </c>
-      <c r="D107">
-        <v>3</v>
-      </c>
-      <c r="E107" s="2">
-        <v>105</v>
-      </c>
-      <c r="F107" s="3"/>
-      <c r="G107" s="3"/>
-      <c r="H107" s="3">
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A108">
-        <v>107</v>
-      </c>
-      <c r="B108" t="s">
-        <v>2</v>
-      </c>
-      <c r="C108">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="D108">
-        <v>2.5</v>
-      </c>
-      <c r="E108" s="2">
-        <v>106</v>
-      </c>
-      <c r="F108" s="3"/>
-      <c r="G108" s="3"/>
-      <c r="H108" s="3">
-        <v>6.6</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A109">
-        <v>108</v>
-      </c>
-      <c r="B109" t="s">
-        <v>2</v>
-      </c>
-      <c r="C109">
-        <v>7.3</v>
-      </c>
-      <c r="D109">
-        <v>2.9</v>
-      </c>
-      <c r="E109" s="2">
-        <v>107</v>
-      </c>
-      <c r="F109" s="3"/>
-      <c r="G109" s="3"/>
-      <c r="H109" s="3">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A110">
-        <v>109</v>
-      </c>
-      <c r="B110" t="s">
-        <v>2</v>
-      </c>
-      <c r="C110">
-        <v>6.7</v>
-      </c>
-      <c r="D110">
-        <v>2.5</v>
-      </c>
-      <c r="E110" s="2">
-        <v>108</v>
-      </c>
-      <c r="F110" s="3"/>
-      <c r="G110" s="3"/>
-      <c r="H110" s="3">
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A111">
-        <v>110</v>
-      </c>
-      <c r="B111" t="s">
-        <v>2</v>
-      </c>
-      <c r="C111">
-        <v>7.2</v>
-      </c>
-      <c r="D111">
-        <v>3.6</v>
-      </c>
-      <c r="E111" s="2">
-        <v>109</v>
-      </c>
-      <c r="F111" s="3"/>
-      <c r="G111" s="3"/>
-      <c r="H111" s="3">
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A112">
-        <v>111</v>
-      </c>
-      <c r="B112" t="s">
-        <v>2</v>
-      </c>
-      <c r="C112">
-        <v>6.5</v>
-      </c>
-      <c r="D112">
-        <v>3.2</v>
-      </c>
-      <c r="E112" s="2">
-        <v>110</v>
-      </c>
-      <c r="F112" s="3"/>
-      <c r="G112" s="3"/>
-      <c r="H112" s="3">
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A113">
-        <v>112</v>
-      </c>
-      <c r="B113" t="s">
-        <v>2</v>
-      </c>
-      <c r="C113">
-        <v>6.4</v>
-      </c>
-      <c r="D113">
-        <v>2.7</v>
-      </c>
-      <c r="E113" s="2">
-        <v>111</v>
-      </c>
-      <c r="F113" s="3"/>
-      <c r="G113" s="3"/>
-      <c r="H113" s="3">
-        <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A114">
-        <v>113</v>
-      </c>
-      <c r="B114" t="s">
-        <v>2</v>
-      </c>
-      <c r="C114">
-        <v>6.8</v>
-      </c>
-      <c r="D114">
-        <v>3</v>
-      </c>
-      <c r="E114" s="2">
-        <v>112</v>
-      </c>
-      <c r="F114" s="3"/>
-      <c r="G114" s="3"/>
-      <c r="H114" s="3">
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A115">
-        <v>114</v>
-      </c>
-      <c r="B115" t="s">
-        <v>2</v>
-      </c>
-      <c r="C115">
-        <v>5.7</v>
-      </c>
-      <c r="D115">
-        <v>2.5</v>
-      </c>
-      <c r="E115" s="2">
-        <v>113</v>
-      </c>
-      <c r="F115" s="3"/>
-      <c r="G115" s="3"/>
-      <c r="H115" s="3">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A116">
-        <v>115</v>
-      </c>
-      <c r="B116" t="s">
-        <v>2</v>
-      </c>
-      <c r="C116">
-        <v>5.8</v>
-      </c>
-      <c r="D116">
-        <v>2.8</v>
-      </c>
-      <c r="E116" s="2">
-        <v>114</v>
-      </c>
-      <c r="F116" s="3"/>
-      <c r="G116" s="3"/>
-      <c r="H116" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A117">
-        <v>116</v>
-      </c>
-      <c r="B117" t="s">
-        <v>2</v>
-      </c>
-      <c r="C117">
-        <v>6.4</v>
-      </c>
-      <c r="D117">
-        <v>3.2</v>
-      </c>
-      <c r="E117" s="2">
-        <v>115</v>
-      </c>
-      <c r="F117" s="3"/>
-      <c r="G117" s="3"/>
-      <c r="H117" s="3">
-        <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A118">
-        <v>117</v>
-      </c>
-      <c r="B118" t="s">
-        <v>2</v>
-      </c>
-      <c r="C118">
-        <v>6.5</v>
-      </c>
-      <c r="D118">
-        <v>3</v>
-      </c>
-      <c r="E118" s="2">
-        <v>116</v>
-      </c>
-      <c r="F118" s="3"/>
-      <c r="G118" s="3"/>
-      <c r="H118" s="3">
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A119">
-        <v>118</v>
-      </c>
-      <c r="B119" t="s">
-        <v>2</v>
-      </c>
-      <c r="C119">
-        <v>7.7</v>
-      </c>
-      <c r="D119">
-        <v>3.8</v>
-      </c>
-      <c r="E119" s="2">
-        <v>117</v>
-      </c>
-      <c r="F119" s="3"/>
-      <c r="G119" s="3"/>
-      <c r="H119" s="3">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A120">
-        <v>119</v>
-      </c>
-      <c r="B120" t="s">
-        <v>2</v>
-      </c>
-      <c r="C120">
-        <v>7.7</v>
-      </c>
-      <c r="D120">
-        <v>2.6</v>
-      </c>
-      <c r="E120" s="2">
-        <v>118</v>
-      </c>
-      <c r="F120" s="3"/>
-      <c r="G120" s="3"/>
-      <c r="H120" s="3">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A121">
-        <v>120</v>
-      </c>
-      <c r="B121" t="s">
-        <v>2</v>
-      </c>
-      <c r="C121">
-        <v>6</v>
-      </c>
-      <c r="D121">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E121" s="2">
-        <v>119</v>
-      </c>
-      <c r="F121" s="3"/>
-      <c r="G121" s="3"/>
-      <c r="H121" s="3">
-        <v>6.9</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A122">
-        <v>121</v>
-      </c>
-      <c r="B122" t="s">
-        <v>2</v>
-      </c>
-      <c r="C122">
-        <v>6.9</v>
-      </c>
-      <c r="D122">
-        <v>3.2</v>
-      </c>
-      <c r="E122" s="2">
-        <v>120</v>
-      </c>
-      <c r="F122" s="3"/>
-      <c r="G122" s="3"/>
-      <c r="H122" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A123">
-        <v>122</v>
-      </c>
-      <c r="B123" t="s">
-        <v>2</v>
-      </c>
-      <c r="C123">
-        <v>5.6</v>
-      </c>
-      <c r="D123">
-        <v>2.8</v>
-      </c>
-      <c r="E123" s="2">
-        <v>121</v>
-      </c>
-      <c r="F123" s="3"/>
-      <c r="G123" s="3"/>
-      <c r="H123" s="3">
-        <v>5.7</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A124">
-        <v>123</v>
-      </c>
-      <c r="B124" t="s">
-        <v>2</v>
-      </c>
-      <c r="C124">
-        <v>7.7</v>
-      </c>
-      <c r="D124">
-        <v>2.8</v>
-      </c>
-      <c r="E124" s="2">
-        <v>122</v>
-      </c>
-      <c r="F124" s="3"/>
-      <c r="G124" s="3"/>
-      <c r="H124" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A125">
-        <v>124</v>
-      </c>
-      <c r="B125" t="s">
-        <v>2</v>
-      </c>
-      <c r="C125">
-        <v>6.3</v>
-      </c>
-      <c r="D125">
-        <v>2.7</v>
-      </c>
-      <c r="E125" s="2">
-        <v>123</v>
-      </c>
-      <c r="F125" s="3"/>
-      <c r="G125" s="3"/>
-      <c r="H125" s="3">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A126">
-        <v>125</v>
-      </c>
-      <c r="B126" t="s">
-        <v>2</v>
-      </c>
-      <c r="C126">
-        <v>6.7</v>
-      </c>
-      <c r="D126">
-        <v>3.3</v>
-      </c>
-      <c r="E126" s="2">
-        <v>124</v>
-      </c>
-      <c r="F126" s="3"/>
-      <c r="G126" s="3"/>
-      <c r="H126" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A127">
-        <v>126</v>
-      </c>
-      <c r="B127" t="s">
-        <v>2</v>
-      </c>
-      <c r="C127">
-        <v>7.2</v>
-      </c>
-      <c r="D127">
-        <v>3.2</v>
-      </c>
-      <c r="E127" s="2">
-        <v>125</v>
-      </c>
-      <c r="F127" s="3"/>
-      <c r="G127" s="3"/>
-      <c r="H127" s="3">
-        <v>5.7</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A128">
-        <v>127</v>
-      </c>
-      <c r="B128" t="s">
-        <v>2</v>
-      </c>
-      <c r="C128">
-        <v>6.2</v>
-      </c>
-      <c r="D128">
-        <v>2.8</v>
-      </c>
-      <c r="E128" s="2">
-        <v>126</v>
-      </c>
-      <c r="F128" s="3"/>
-      <c r="G128" s="3"/>
-      <c r="H128" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A129">
-        <v>128</v>
-      </c>
-      <c r="B129" t="s">
-        <v>2</v>
-      </c>
-      <c r="C129">
-        <v>6.1</v>
-      </c>
-      <c r="D129">
-        <v>3</v>
-      </c>
-      <c r="E129" s="2">
-        <v>127</v>
-      </c>
-      <c r="F129" s="3"/>
-      <c r="G129" s="3"/>
-      <c r="H129" s="3">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A130">
-        <v>129</v>
-      </c>
-      <c r="B130" t="s">
-        <v>2</v>
-      </c>
-      <c r="C130">
-        <v>6.4</v>
-      </c>
-      <c r="D130">
-        <v>2.8</v>
-      </c>
-      <c r="E130" s="2">
-        <v>128</v>
-      </c>
-      <c r="F130" s="3"/>
-      <c r="G130" s="3"/>
-      <c r="H130" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A131">
-        <v>130</v>
-      </c>
-      <c r="B131" t="s">
-        <v>2</v>
-      </c>
-      <c r="C131">
-        <v>7.2</v>
-      </c>
-      <c r="D131">
-        <v>3</v>
-      </c>
-      <c r="E131" s="2">
-        <v>129</v>
-      </c>
-      <c r="F131" s="3"/>
-      <c r="G131" s="3"/>
-      <c r="H131" s="3">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A132">
-        <v>131</v>
-      </c>
-      <c r="B132" t="s">
-        <v>2</v>
-      </c>
-      <c r="C132">
-        <v>7.4</v>
-      </c>
-      <c r="D132">
-        <v>2.8</v>
-      </c>
-      <c r="E132" s="2">
-        <v>130</v>
-      </c>
-      <c r="F132" s="3"/>
-      <c r="G132" s="3"/>
-      <c r="H132" s="3">
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A133">
-        <v>132</v>
-      </c>
-      <c r="B133" t="s">
-        <v>2</v>
-      </c>
-      <c r="C133">
-        <v>7.9</v>
-      </c>
-      <c r="D133">
-        <v>3.8</v>
-      </c>
-      <c r="E133" s="2">
-        <v>131</v>
-      </c>
-      <c r="F133" s="3"/>
-      <c r="G133" s="3"/>
-      <c r="H133" s="3">
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A134">
-        <v>133</v>
-      </c>
-      <c r="B134" t="s">
-        <v>2</v>
-      </c>
-      <c r="C134">
-        <v>6.4</v>
-      </c>
-      <c r="D134">
-        <v>2.8</v>
-      </c>
-      <c r="E134" s="2">
-        <v>132</v>
-      </c>
-      <c r="F134" s="3"/>
-      <c r="G134" s="3"/>
-      <c r="H134" s="3">
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A135">
-        <v>134</v>
-      </c>
-      <c r="B135" t="s">
-        <v>2</v>
-      </c>
-      <c r="C135">
-        <v>6.3</v>
-      </c>
-      <c r="D135">
-        <v>2.8</v>
-      </c>
-      <c r="E135" s="2">
-        <v>133</v>
-      </c>
-      <c r="F135" s="3"/>
-      <c r="G135" s="3"/>
-      <c r="H135" s="3">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A136">
-        <v>135</v>
-      </c>
-      <c r="B136" t="s">
-        <v>2</v>
-      </c>
-      <c r="C136">
-        <v>6.1</v>
-      </c>
-      <c r="D136">
-        <v>2.6</v>
-      </c>
-      <c r="E136" s="2">
-        <v>134</v>
-      </c>
-      <c r="F136" s="3"/>
-      <c r="G136" s="3"/>
-      <c r="H136" s="3">
-        <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A137">
-        <v>136</v>
-      </c>
-      <c r="B137" t="s">
-        <v>2</v>
-      </c>
-      <c r="C137">
-        <v>7.7</v>
-      </c>
-      <c r="D137">
-        <v>3</v>
-      </c>
-      <c r="E137" s="2">
-        <v>135</v>
-      </c>
-      <c r="F137" s="3"/>
-      <c r="G137" s="3"/>
-      <c r="H137" s="3">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A138">
-        <v>137</v>
-      </c>
-      <c r="B138" t="s">
-        <v>2</v>
-      </c>
-      <c r="C138">
-        <v>6.3</v>
-      </c>
-      <c r="D138">
-        <v>3.4</v>
-      </c>
-      <c r="E138" s="2">
-        <v>136</v>
-      </c>
-      <c r="F138" s="3"/>
-      <c r="G138" s="3"/>
-      <c r="H138" s="3">
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A139">
-        <v>138</v>
-      </c>
-      <c r="B139" t="s">
-        <v>2</v>
-      </c>
-      <c r="C139">
-        <v>6.4</v>
-      </c>
-      <c r="D139">
-        <v>3.1</v>
-      </c>
-      <c r="E139" s="2">
-        <v>137</v>
-      </c>
-      <c r="F139" s="3"/>
-      <c r="G139" s="3"/>
-      <c r="H139" s="3">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A140">
-        <v>139</v>
-      </c>
-      <c r="B140" t="s">
-        <v>2</v>
-      </c>
-      <c r="C140">
-        <v>6</v>
-      </c>
-      <c r="D140">
-        <v>3</v>
-      </c>
-      <c r="E140" s="2">
-        <v>138</v>
-      </c>
-      <c r="F140" s="3"/>
-      <c r="G140" s="3"/>
-      <c r="H140" s="3">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A141">
-        <v>140</v>
-      </c>
-      <c r="B141" t="s">
-        <v>2</v>
-      </c>
-      <c r="C141">
-        <v>6.9</v>
-      </c>
-      <c r="D141">
-        <v>3.1</v>
-      </c>
-      <c r="E141" s="2">
-        <v>139</v>
-      </c>
-      <c r="F141" s="3"/>
-      <c r="G141" s="3"/>
-      <c r="H141" s="3">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A142">
-        <v>141</v>
-      </c>
-      <c r="B142" t="s">
-        <v>2</v>
-      </c>
-      <c r="C142">
-        <v>6.7</v>
-      </c>
-      <c r="D142">
-        <v>3.1</v>
-      </c>
-      <c r="E142" s="2">
-        <v>140</v>
-      </c>
-      <c r="F142" s="3"/>
-      <c r="G142" s="3"/>
-      <c r="H142" s="3">
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A143">
-        <v>142</v>
-      </c>
-      <c r="B143" t="s">
-        <v>2</v>
-      </c>
-      <c r="C143">
-        <v>6.9</v>
-      </c>
-      <c r="D143">
-        <v>3.1</v>
-      </c>
-      <c r="E143" s="2">
-        <v>141</v>
-      </c>
-      <c r="F143" s="3"/>
-      <c r="G143" s="3"/>
-      <c r="H143" s="3">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A144">
-        <v>143</v>
-      </c>
-      <c r="B144" t="s">
-        <v>2</v>
-      </c>
-      <c r="C144">
-        <v>5.8</v>
-      </c>
-      <c r="D144">
-        <v>2.7</v>
-      </c>
-      <c r="E144" s="2">
-        <v>142</v>
-      </c>
-      <c r="F144" s="3"/>
-      <c r="G144" s="3"/>
-      <c r="H144" s="3">
-        <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A145">
-        <v>144</v>
-      </c>
-      <c r="B145" t="s">
-        <v>2</v>
-      </c>
-      <c r="C145">
-        <v>6.8</v>
-      </c>
-      <c r="D145">
-        <v>3.2</v>
-      </c>
-      <c r="E145" s="2">
-        <v>143</v>
-      </c>
-      <c r="F145" s="3"/>
-      <c r="G145" s="3"/>
-      <c r="H145" s="3">
-        <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A146">
-        <v>145</v>
-      </c>
-      <c r="B146" t="s">
-        <v>2</v>
-      </c>
-      <c r="C146">
-        <v>6.7</v>
-      </c>
-      <c r="D146">
-        <v>3.3</v>
-      </c>
-      <c r="E146" s="2">
-        <v>144</v>
-      </c>
-      <c r="F146" s="3"/>
-      <c r="G146" s="3"/>
-      <c r="H146" s="3">
-        <v>5.9</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A147">
-        <v>146</v>
-      </c>
-      <c r="B147" t="s">
-        <v>2</v>
-      </c>
-      <c r="C147">
-        <v>6.7</v>
-      </c>
-      <c r="D147">
-        <v>3</v>
-      </c>
-      <c r="E147" s="2">
-        <v>145</v>
-      </c>
-      <c r="F147" s="3"/>
-      <c r="G147" s="3"/>
-      <c r="H147" s="3">
-        <v>5.7</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A148">
-        <v>147</v>
-      </c>
-      <c r="B148" t="s">
-        <v>2</v>
-      </c>
-      <c r="C148">
-        <v>6.3</v>
-      </c>
-      <c r="D148">
-        <v>2.5</v>
-      </c>
-      <c r="E148" s="2">
-        <v>146</v>
-      </c>
-      <c r="F148" s="3"/>
-      <c r="G148" s="3"/>
-      <c r="H148" s="3">
-        <v>5.2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A149">
-        <v>148</v>
-      </c>
-      <c r="B149" t="s">
-        <v>2</v>
-      </c>
-      <c r="C149">
-        <v>6.5</v>
-      </c>
-      <c r="D149">
-        <v>3</v>
-      </c>
-      <c r="E149" s="2">
-        <v>147</v>
-      </c>
-      <c r="F149" s="3"/>
-      <c r="G149" s="3"/>
-      <c r="H149" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A150">
-        <v>149</v>
-      </c>
-      <c r="B150" t="s">
-        <v>2</v>
-      </c>
-      <c r="C150">
-        <v>6.2</v>
-      </c>
-      <c r="D150">
-        <v>3.4</v>
-      </c>
-      <c r="E150" s="2">
-        <v>148</v>
-      </c>
-      <c r="F150" s="3"/>
-      <c r="G150" s="3"/>
-      <c r="H150" s="3">
-        <v>5.2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A151">
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A152" s="2">
         <v>150</v>
       </c>
-      <c r="B151" t="s">
-        <v>2</v>
-      </c>
-      <c r="C151">
-        <v>5.9</v>
-      </c>
-      <c r="D151">
-        <v>3</v>
-      </c>
-      <c r="E151" s="2">
-        <v>149</v>
-      </c>
-      <c r="F151" s="3"/>
-      <c r="G151" s="3"/>
-      <c r="H151" s="3">
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E152" s="2">
-        <v>150</v>
-      </c>
-      <c r="F152" s="3"/>
-      <c r="G152" s="3"/>
-      <c r="H152" s="3">
+      <c r="B152" s="3"/>
+      <c r="C152" s="3"/>
+      <c r="D152" s="3">
         <v>5.0999999999999996</v>
       </c>
     </row>
